--- a/data/trans_orig/P78D$hipoteca_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78D$hipoteca_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7AC19AE-2CCD-45BF-A29A-326AC28F370D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC4686E5-AB98-45B6-ABAE-34106EBA642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40C7D2C1-9059-43ED-B4A6-EAB5E596A925}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B992F6BD-654A-4503-A3F9-377BE7A1FB0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="400">
-  <si>
-    <t>Población que ha tenido algún retraso en pagos en los últimos 12 meses en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="432">
+  <si>
+    <t>Población que ha tenido algún retraso en pagos en los últimos 12 meses (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,1180 +59,1276 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Hipoteca</t>
   </si>
   <si>
-    <t>0,05%</t>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Recibos de agua, luz, ...</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>Autónomos</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Colegios</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>Impuestos</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>Recibos de agua, luz, ...</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>Autónomos</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Colegios</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1647,8 +1743,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C6ACA-B9E5-42B9-9EFD-12E20184D6EE}">
-  <dimension ref="A1:K81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3E9A46-44B4-432D-BDD0-0E5A0A9572A3}">
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1786,61 +1882,61 @@
         <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
@@ -1852,10 +1948,10 @@
         <v>13</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>38</v>
@@ -1975,28 +2071,28 @@
         <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
@@ -2023,105 +2119,105 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>97</v>
@@ -2154,49 +2250,49 @@
         <v>104</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -2205,25 +2301,25 @@
         <v>12</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="J18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2232,31 +2328,31 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2265,31 +2361,31 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2298,31 +2394,31 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2337,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
@@ -2346,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>10</v>
@@ -2355,13 +2451,13 @@
         <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>10</v>
@@ -2370,126 +2466,126 @@
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2498,97 +2594,97 @@
         <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="I28" s="7" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="I29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2597,31 +2693,31 @@
         <v>39</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2630,31 +2726,31 @@
         <v>47</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2663,31 +2759,31 @@
         <v>57</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2702,138 +2798,138 @@
         <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>225</v>
@@ -2842,10 +2938,10 @@
         <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>228</v>
@@ -2854,7 +2950,7 @@
         <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2863,97 +2959,97 @@
         <v>16</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="J39" s="7" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2962,31 +3058,31 @@
         <v>39</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2995,31 +3091,31 @@
         <v>47</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3028,31 +3124,31 @@
         <v>57</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3067,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -3076,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>10</v>
@@ -3085,13 +3181,13 @@
         <v>12</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>10</v>
@@ -3100,16 +3196,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>9</v>
@@ -3118,108 +3214,108 @@
         <v>10</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3228,97 +3324,97 @@
         <v>16</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3327,31 +3423,31 @@
         <v>39</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3360,31 +3456,31 @@
         <v>47</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3393,31 +3489,31 @@
         <v>57</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>112</v>
+        <v>308</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3432,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
@@ -3441,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>10</v>
@@ -3450,13 +3546,13 @@
         <v>12</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>10</v>
@@ -3465,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
@@ -3474,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>10</v>
@@ -3483,108 +3579,108 @@
         <v>12</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>66</v>
+        <v>329</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="I59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="K59" s="7" t="s">
-        <v>283</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3593,97 +3689,97 @@
         <v>16</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>327</v>
+        <v>65</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3692,31 +3788,31 @@
         <v>39</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3725,31 +3821,31 @@
         <v>47</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3764,7 +3860,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
@@ -3773,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>10</v>
@@ -3782,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3797,31 +3893,31 @@
         <v>12</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>325</v>
+        <v>203</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>10</v>
@@ -3830,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
@@ -3839,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>10</v>
@@ -3848,108 +3944,108 @@
         <v>12</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="G68" s="7" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3958,97 +4054,97 @@
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="J71" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>362</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>363</v>
+        <v>204</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4057,31 +4153,31 @@
         <v>39</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>368</v>
+        <v>107</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>134</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4090,31 +4186,31 @@
         <v>47</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="K75" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4123,31 +4219,31 @@
         <v>57</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>328</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4162,138 +4258,504 @@
         <v>12</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>323</v>
+        <v>10</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>302</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>329</v>
+        <v>10</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>382</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>49</v>
+        <v>374</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>389</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K81" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D80" s="7" t="s">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="G82" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="I82" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="J82" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="K83" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="I80" s="7" t="s">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="F84" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K80" s="7" t="s">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="D85" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>399</v>
       </c>
+      <c r="G85" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>431</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A26:A36"/>
     <mergeCell ref="A37:A47"/>
     <mergeCell ref="A48:A58"/>
     <mergeCell ref="A59:A69"/>
     <mergeCell ref="A70:A80"/>
+    <mergeCell ref="A81:A91"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
